--- a/Timduong/csv040122/map350_040122_X.xlsx
+++ b/Timduong/csv040122/map350_040122_X.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Desktop\WORKSPACE\AGV\Tools\Timduong\csv040122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtth2\OneDrive\Desktop\mapf\Timduong\csv040122\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41D579-05B4-4945-B283-1EDB32A74C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="1152" yWindow="900" windowWidth="17280" windowHeight="9072" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4556" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="16">
   <si>
     <t>d</t>
   </si>
@@ -67,12 +68,18 @@
   <si>
     <t>q</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -87,8 +94,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +138,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,12 +177,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -146,10 +205,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Trung lập" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,20 +564,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="68" width="3.28515625" customWidth="1"/>
-    <col min="69" max="987" width="8.5703125" customWidth="1"/>
+    <col min="1" max="68" width="3.33203125" customWidth="1"/>
+    <col min="69" max="987" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -713,7 +783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -919,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1331,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1537,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +2019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2361,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2773,7 +2843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2979,7 +3049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3185,7 +3255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3391,7 +3461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3597,7 +3667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3803,7 +3873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4009,7 +4079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4215,7 +4285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4421,7 +4491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4627,7 +4697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4833,7 +4903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5039,7 +5109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5245,7 +5315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -5451,7 +5521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5657,7 +5727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5863,7 +5933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6069,7 +6139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -6275,7 +6345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -6481,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -6687,7 +6757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6893,7 +6963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -7099,7 +7169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -7305,7 +7375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -7511,7 +7581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -7717,7 +7787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -7923,7 +7993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -8129,7 +8199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -8335,7 +8405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -8541,7 +8611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -8747,7 +8817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -8953,7 +9023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -9159,7 +9229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -9365,7 +9435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -9571,7 +9641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -9777,7 +9847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -9983,7 +10053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -10189,7 +10259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -10395,7 +10465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -10601,7 +10671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -10807,7 +10877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -11013,7 +11083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -11219,7 +11289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -11425,7 +11495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -11631,7 +11701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -11837,7 +11907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -12043,7 +12113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -12249,7 +12319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -12455,7 +12525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -12661,7 +12731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -12867,7 +12937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -13073,7 +13143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -13279,7 +13349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -13485,7 +13555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -13691,7 +13761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -13897,7 +13967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -14103,7 +14173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -14309,7 +14379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -14514,6 +14584,145 @@
       <c r="BP68" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="171" spans="28:56" x14ac:dyDescent="0.3">
+      <c r="AB171" s="7"/>
+      <c r="AC171" s="8"/>
+      <c r="AD171" s="7"/>
+      <c r="AE171" s="9"/>
+      <c r="AF171" s="8"/>
+      <c r="AH171" s="7"/>
+      <c r="AI171" s="8"/>
+      <c r="AJ171" s="9"/>
+      <c r="AK171" s="12"/>
+      <c r="AL171" s="8"/>
+      <c r="AN171" s="7"/>
+      <c r="AO171" s="8"/>
+      <c r="AP171" s="12"/>
+      <c r="AQ171" s="12"/>
+      <c r="AR171" s="8"/>
+      <c r="AT171" s="7"/>
+      <c r="AU171" s="8"/>
+      <c r="AV171" s="12"/>
+      <c r="AW171" s="12"/>
+      <c r="AX171" s="8"/>
+      <c r="AZ171" s="7"/>
+      <c r="BA171" s="8"/>
+      <c r="BB171" s="7"/>
+      <c r="BC171" s="14"/>
+      <c r="BD171" s="8"/>
+    </row>
+    <row r="172" spans="28:56" x14ac:dyDescent="0.3">
+      <c r="AB172" s="7"/>
+      <c r="AC172" s="7"/>
+      <c r="AD172" s="10"/>
+      <c r="AE172" s="15"/>
+      <c r="AF172" s="9"/>
+      <c r="AH172" s="7"/>
+      <c r="AI172" s="9"/>
+      <c r="AJ172" s="12"/>
+      <c r="AK172" s="13"/>
+      <c r="AL172" s="12"/>
+      <c r="AN172" s="9"/>
+      <c r="AO172" s="12"/>
+      <c r="AP172" s="12"/>
+      <c r="AQ172" s="13"/>
+      <c r="AR172" s="12"/>
+      <c r="AT172" s="12"/>
+      <c r="AU172" s="12"/>
+      <c r="AV172" s="12"/>
+      <c r="AW172" s="13"/>
+      <c r="AX172" s="12"/>
+      <c r="AZ172" s="9"/>
+      <c r="BA172" s="9"/>
+      <c r="BB172" s="10"/>
+      <c r="BC172" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD172" s="14"/>
+    </row>
+    <row r="173" spans="28:56" x14ac:dyDescent="0.3">
+      <c r="AB173" s="7"/>
+      <c r="AC173" s="7"/>
+      <c r="AD173" s="8"/>
+      <c r="AE173" s="9"/>
+      <c r="AF173" s="7"/>
+      <c r="AH173" s="7"/>
+      <c r="AI173" s="7"/>
+      <c r="AJ173" s="8"/>
+      <c r="AK173" s="12"/>
+      <c r="AL173" s="9"/>
+      <c r="AN173" s="7"/>
+      <c r="AO173" s="9"/>
+      <c r="AP173" s="8"/>
+      <c r="AQ173" s="12"/>
+      <c r="AR173" s="12"/>
+      <c r="AT173" s="9"/>
+      <c r="AU173" s="12"/>
+      <c r="AV173" s="8"/>
+      <c r="AW173" s="12"/>
+      <c r="AX173" s="12"/>
+      <c r="AZ173" s="9"/>
+      <c r="BA173" s="7"/>
+      <c r="BB173" s="8"/>
+      <c r="BC173" s="14"/>
+      <c r="BD173" s="7"/>
+    </row>
+    <row r="174" spans="28:56" x14ac:dyDescent="0.3">
+      <c r="AB174" s="11"/>
+      <c r="AC174" s="8"/>
+      <c r="AD174" s="7"/>
+      <c r="AE174" s="8"/>
+      <c r="AF174" s="8"/>
+      <c r="AH174" s="11"/>
+      <c r="AI174" s="8"/>
+      <c r="AJ174" s="7"/>
+      <c r="AK174" s="8"/>
+      <c r="AL174" s="8"/>
+      <c r="AN174" s="11"/>
+      <c r="AO174" s="8"/>
+      <c r="AP174" s="7"/>
+      <c r="AQ174" s="8"/>
+      <c r="AR174" s="8"/>
+      <c r="AT174" s="11"/>
+      <c r="AU174" s="8"/>
+      <c r="AV174" s="7"/>
+      <c r="AW174" s="8"/>
+      <c r="AX174" s="8"/>
+      <c r="AZ174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA174" s="8"/>
+      <c r="BB174" s="7"/>
+      <c r="BC174" s="8"/>
+      <c r="BD174" s="8"/>
+    </row>
+    <row r="175" spans="28:56" x14ac:dyDescent="0.3">
+      <c r="AB175" s="7"/>
+      <c r="AC175" s="7"/>
+      <c r="AD175" s="7"/>
+      <c r="AE175" s="7"/>
+      <c r="AF175" s="7"/>
+      <c r="AH175" s="7"/>
+      <c r="AI175" s="7"/>
+      <c r="AJ175" s="7"/>
+      <c r="AK175" s="7"/>
+      <c r="AL175" s="7"/>
+      <c r="AN175" s="7"/>
+      <c r="AO175" s="7"/>
+      <c r="AP175" s="7"/>
+      <c r="AQ175" s="7"/>
+      <c r="AR175" s="7"/>
+      <c r="AT175" s="7"/>
+      <c r="AU175" s="7"/>
+      <c r="AV175" s="7"/>
+      <c r="AW175" s="7"/>
+      <c r="AX175" s="7"/>
+      <c r="AZ175" s="7"/>
+      <c r="BA175" s="7"/>
+      <c r="BB175" s="7"/>
+      <c r="BC175" s="7"/>
+      <c r="BD175" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
